--- a/biology/Médecine/1287_en_santé_et_médecine/1287_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1287_en_santé_et_médecine/1287_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1287_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1287_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1287 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1287_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1287_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2 août : fondation par Othon IV, comte palatin de Bourgogne, de la faculté de médecine de l'université de Gray, qui, transférée à Dole, n'ouvrira ses portes qu'en 1424[1].
-Fondation par Folco Portinari, père de la Béatrice aimée de Dante, de l'hôpital Santa Maria Nuova de Florence[2].
-Une léproserie est attestée à Chianciano, en Toscane[3].
-Fondation par Philip de Ryedale d'une maison-Dieu, sans doute réservée aux lépreux, à Berwick, dans le Northumberland, en Angleterre[4].
-La maladrerie de Saint-Marc et Saint-Blaise, à Moulins-Engilbert, est mentionnée dans un terrier de l'évêché de Nevers[5].
-Un hôpital neuf (hospitale novum) dépendant du monastère de Roncevaux est mentionné à Arancou en Guyenne[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2 août : fondation par Othon IV, comte palatin de Bourgogne, de la faculté de médecine de l'université de Gray, qui, transférée à Dole, n'ouvrira ses portes qu'en 1424.
+Fondation par Folco Portinari, père de la Béatrice aimée de Dante, de l'hôpital Santa Maria Nuova de Florence.
+Une léproserie est attestée à Chianciano, en Toscane.
+Fondation par Philip de Ryedale d'une maison-Dieu, sans doute réservée aux lépreux, à Berwick, dans le Northumberland, en Angleterre.
+La maladrerie de Saint-Marc et Saint-Blaise, à Moulins-Engilbert, est mentionnée dans un terrier de l'évêché de Nevers.
+Un hôpital neuf (hospitale novum) dépendant du monastère de Roncevaux est mentionné à Arancou en Guyenne.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1287_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1287_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À York, en Angleterre, St. Leonard's Hospital, dont les origines remontent à 937 selon la tradition[7], n'héberge pas moins de deux cent vingt-cinq pauvres[8] ; mais les sœurs et les frères déclarent y être moins bien nourris que par le passé, et s'ils continuent d'être rémunérés pour leur habillement, les pauvres, eux, se plaignent de ne plus recevoir de vieux vêtements[9].
-À Saint-Ives, dans le Huntingdonshire, deux personnes ayant donné l'hospitalité à des lépreux sont jugées pour « avoir fait courir un grave péril à leurs voisins et aux marchands de passage[10] ».
-Le cardinal Conte Casate désigne trois médecins dans son testament[11].
-Vers 1287 (?) : Georg Friedrich Stabel (de) (1687-1782), chimiste et médecine allemand, affirmera en 1724 que la plique polonaise, maladie qui consiste dans un entrelacement inextricable de la chevelure, « vient des Indes orientales, d'où elle s'est communiquée aux Tartares et aux Cosaques de l'Ukraine, environ l'an 1287[12] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À York, en Angleterre, St. Leonard's Hospital, dont les origines remontent à 937 selon la tradition, n'héberge pas moins de deux cent vingt-cinq pauvres ; mais les sœurs et les frères déclarent y être moins bien nourris que par le passé, et s'ils continuent d'être rémunérés pour leur habillement, les pauvres, eux, se plaignent de ne plus recevoir de vieux vêtements.
+À Saint-Ives, dans le Huntingdonshire, deux personnes ayant donné l'hospitalité à des lépreux sont jugées pour « avoir fait courir un grave péril à leurs voisins et aux marchands de passage ».
+Le cardinal Conte Casate désigne trois médecins dans son testament.
+Vers 1287 (?) : Georg Friedrich Stabel (de) (1687-1782), chimiste et médecine allemand, affirmera en 1724 que la plique polonaise, maladie qui consiste dans un entrelacement inextricable de la chevelure, « vient des Indes orientales, d'où elle s'est communiquée aux Tartares et aux Cosaques de l'Ukraine, environ l'an 1287 ».</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1287_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1287_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1287 : Rufinus compose son traité De virtutibus herbarum, où il « s'attache davantage à la description botanique qu'à l'examen des propriétés médicinales des plantes[13] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1287 : Rufinus compose son traité De virtutibus herbarum, où il « s'attache davantage à la description botanique qu'à l'examen des propriétés médicinales des plantes ».</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1287_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1287_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +627,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fl. Hesso, fils d'Heinricus Philippi, tous deux apothicaires, et qui tiennent probablement l'officine qui est à l'origine de « la célèbre pharmacie du Cerf » de Strasbourg[14].
-Fl. Raymond de Areis, médecin, témoin dans une transaction entre les syndics de La Grasse, en Languedoc, et l'abbé de Sainte-Marie[15].
-1287-1303 : fl. Isaac ben Mardochée (en), médecin des papes Nicolas IV et Boniface VIII[16].
-1287-1311 : fl. Leo Judeus, médecin juif à Manosque, en Provence[17].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fl. Hesso, fils d'Heinricus Philippi, tous deux apothicaires, et qui tiennent probablement l'officine qui est à l'origine de « la célèbre pharmacie du Cerf » de Strasbourg.
+Fl. Raymond de Areis, médecin, témoin dans une transaction entre les syndics de La Grasse, en Languedoc, et l'abbé de Sainte-Marie.
+1287-1303 : fl. Isaac ben Mardochée (en), médecin des papes Nicolas IV et Boniface VIII.
+1287-1311 : fl. Leo Judeus, médecin juif à Manosque, en Provence.</t>
         </is>
       </c>
     </row>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1287_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1287_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,9 +662,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1286 ou 1287 : Kalonymus ben Kalonymus (mort après le 18 avril 1328), rabbin provençal, traducteur de l'arabe en hébreu de nombreux ouvrages scientifiques, philosophiques et médicaux, n'ayant, semble-t-il, jamais pratiqué la médecine, qu'il avait cependant étudiée[18],[19].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1286 ou 1287 : Kalonymus ben Kalonymus (mort après le 18 avril 1328), rabbin provençal, traducteur de l'arabe en hébreu de nombreux ouvrages scientifiques, philosophiques et médicaux, n'ayant, semble-t-il, jamais pratiqué la médecine, qu'il avait cependant étudiée,.</t>
         </is>
       </c>
     </row>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1287_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1287_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,10 +694,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>27 juillet : Hugues d'Evesham (né à une date inconnue), clerc, médecin et alchimiste anglais, archiatre du pape Martin IV[20].
-Entre 1262 et 1287 : Zambonino de Gazo (né à une date inconnue), professeur de médecine à Padoue, auteur d'un Tractatus de conservatione sanitatis[15].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27 juillet : Hugues d'Evesham (né à une date inconnue), clerc, médecin et alchimiste anglais, archiatre du pape Martin IV.
+Entre 1262 et 1287 : Zambonino de Gazo (né à une date inconnue), professeur de médecine à Padoue, auteur d'un Tractatus de conservatione sanitatis.</t>
         </is>
       </c>
     </row>
